--- a/ranking_Aug-2023.xlsx
+++ b/ranking_Aug-2023.xlsx
@@ -481,12 +481,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>i10-index</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>h-index (5 years)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>i10-index</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -507,7 +507,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         <v>27</v>
       </c>
       <c r="K2" t="n">
+        <v>66</v>
+      </c>
+      <c r="L2" t="n">
         <v>26</v>
-      </c>
-      <c r="L2" t="n">
-        <v>66</v>
       </c>
       <c r="M2" t="n">
         <v>63</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -612,10 +612,10 @@
         <v>26</v>
       </c>
       <c r="K3" t="n">
+        <v>46</v>
+      </c>
+      <c r="L3" t="n">
         <v>23</v>
-      </c>
-      <c r="L3" t="n">
-        <v>46</v>
       </c>
       <c r="M3" t="n">
         <v>40</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
         <v>16</v>
       </c>
       <c r="K4" t="n">
+        <v>21</v>
+      </c>
+      <c r="L4" t="n">
         <v>15</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21</v>
       </c>
       <c r="M4" t="n">
         <v>21</v>
@@ -734,10 +734,10 @@
         <v>8</v>
       </c>
       <c r="K5" t="n">
+        <v>7</v>
+      </c>
+      <c r="L5" t="n">
         <v>8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7</v>
       </c>
       <c r="M5" t="n">
         <v>7</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -795,10 +795,10 @@
         <v>8</v>
       </c>
       <c r="K6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" t="n">
         <v>8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>6</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -856,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="K7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" t="n">
         <v>7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>6</v>
@@ -917,10 +917,10 @@
         <v>5</v>
       </c>
       <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
         <v>5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -978,10 +978,10 @@
         <v>5</v>
       </c>
       <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
         <v>5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1039,10 +1039,10 @@
         <v>5</v>
       </c>
       <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
         <v>4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1100,10 +1100,10 @@
         <v>3</v>
       </c>
       <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
         <v>3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
